--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ralph Vincent\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ralph\Documents\GitHub\microMIPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E51A3A1-4730-46AD-834E-EEC0F0357BF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{885D079A-D29E-4319-9C02-2F87A807A639}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{27DC6DBC-8423-4FA0-8126-9AC71F277C7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{27DC6DBC-8423-4FA0-8126-9AC71F277C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,6 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,99 +455,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA79796E-0E90-4935-9F29-3F53DA293E90}">
-  <dimension ref="A3:U11"/>
+  <dimension ref="A3:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:M10"/>
+      <selection activeCell="A3" sqref="A3:T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>6</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>7</v>
       </c>
-      <c r="I3" s="2">
-        <v>8</v>
-      </c>
       <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
         <v>9</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>10</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>11</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>12</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>13</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>14</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>15</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>16</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>17</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>18</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>19</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -561,28 +564,31 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -596,35 +602,38 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -635,38 +644,41 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -674,12 +686,15 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -687,39 +702,42 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>8</v>
+      <c r="M8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -727,35 +745,38 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -763,35 +784,38 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="N10" s="5"/>
-      <c r="O10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="O10" s="5"/>
       <c r="P10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -805,24 +829,25 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>